--- a/Collections/Display/Display.xlsx
+++ b/Collections/Display/Display.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\Optisky\Optisky.github.io\Collections\Display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B160B8-E49E-4848-83E8-F8C2ED2B94FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F4C712-F10B-443B-B451-5616C38DFF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{84A46D7C-5D3F-4D72-85D4-4CF62A0977F2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{84A46D7C-5D3F-4D72-85D4-4CF62A0977F2}"/>
   </bookViews>
   <sheets>
     <sheet name="屏厂" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="显示产业制造商" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="269">
   <si>
     <t>material</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1877,6 +1878,357 @@
   </si>
   <si>
     <t>深超（土地入股）与富士康合资，生成LCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂商1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂商2</t>
+  </si>
+  <si>
+    <t>厂商3</t>
+  </si>
+  <si>
+    <t>厂商4</t>
+  </si>
+  <si>
+    <t>厂商5</t>
+  </si>
+  <si>
+    <t>厂商6</t>
+  </si>
+  <si>
+    <t>厂商7</t>
+  </si>
+  <si>
+    <t>厂商8</t>
+  </si>
+  <si>
+    <t>厂商9</t>
+  </si>
+  <si>
+    <t>厂商10</t>
+  </si>
+  <si>
+    <t>OLED面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLED模组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD模组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群创</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三菱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏光片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住友化学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMBO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡棉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜箔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新纶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩国INNOX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wafer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联咏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞鼎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云英谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頎邦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯天下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新芯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兆易创新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元盛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景旺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三德冠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伯恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JNTC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星LSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美格纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silicon Works</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞萨电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anapass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敦泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晨星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奕力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天钰科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集创北方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新相微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所罗门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉迪斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晟合微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奕斯伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宸鸿TPK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矽创电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谱瑞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格科微</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2040,7 +2392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2074,6 +2426,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2083,11 +2441,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3010,170 +3368,170 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="52.6640625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="31.77734375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="17" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="14"/>
+    <col min="1" max="1" width="17.44140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="17" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="11" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="11" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="11" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3185,11 +3543,429 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8125F96-6D79-4F4E-8F51-1F46695B7F66}">
+  <dimension ref="A1:AA22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA15" sqref="C15:AA15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="16"/>
+    <col min="2" max="2" width="13.21875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="12" style="16" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="16"/>
+    <col min="5" max="5" width="9.77734375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="R15" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="S15" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="U15" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="V15" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="W15" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="X15" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y15" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z15" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA15" s="16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A21:A22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E45C74-795D-453F-962E-3B596D79447B}">
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3205,14 +3981,14 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3221,12 +3997,12 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3235,12 +4011,12 @@
       <c r="B3" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -3249,12 +4025,12 @@
       <c r="B4" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3263,12 +4039,12 @@
       <c r="B5" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3277,12 +4053,12 @@
       <c r="B6" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3291,12 +4067,12 @@
       <c r="B7" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3305,12 +4081,12 @@
       <c r="B8" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3468,7 +4244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B884DF41-9C59-4BDE-8058-1FE12BD14078}">
   <dimension ref="A1:P191"/>
   <sheetViews>
@@ -3910,11 +4686,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA2616B-4F49-4AC3-92FF-AF63F901F62F}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -3983,7 +4759,7 @@
       <c r="L2"/>
     </row>
     <row r="3" spans="1:13" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -4021,7 +4797,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="15"/>
       <c r="F4" s="9" t="s">
         <v>96</v>
       </c>
